--- a/Biovolumes_biomass.xlsx
+++ b/Biovolumes_biomass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Quantification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5EED78-276C-4D45-89B7-155891117BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10F6527-C25C-454B-99E7-15B9EEE1ECF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="-110" windowWidth="20330" windowHeight="14620" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="-110" windowWidth="20330" windowHeight="14620" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="17" r:id="rId1"/>
@@ -1412,33 +1412,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1453,6 +1426,33 @@
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1736,8 +1736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Y25" sqref="Y25"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AH21" sqref="F21:AH21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1778,65 +1778,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="19" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="204" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="198" t="s">
+      <c r="B1" s="200" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198" t="s">
+      <c r="C1" s="200"/>
+      <c r="D1" s="200" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198" t="s">
+      <c r="E1" s="200"/>
+      <c r="F1" s="200" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="198"/>
+      <c r="G1" s="200"/>
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
-      <c r="J1" s="198" t="s">
+      <c r="J1" s="200" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198" t="s">
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="200" t="s">
         <v>112</v>
       </c>
-      <c r="O1" s="198"/>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198" t="s">
+      <c r="O1" s="200"/>
+      <c r="P1" s="200"/>
+      <c r="Q1" s="200" t="s">
         <v>84</v>
       </c>
-      <c r="R1" s="198"/>
-      <c r="S1" s="198"/>
-      <c r="T1" s="198"/>
-      <c r="U1" s="198"/>
-      <c r="V1" s="198"/>
-      <c r="W1" s="198"/>
-      <c r="X1" s="198"/>
-      <c r="Y1" s="198"/>
-      <c r="Z1" s="198" t="s">
+      <c r="R1" s="200"/>
+      <c r="S1" s="200"/>
+      <c r="T1" s="200"/>
+      <c r="U1" s="200"/>
+      <c r="V1" s="200"/>
+      <c r="W1" s="200"/>
+      <c r="X1" s="200"/>
+      <c r="Y1" s="200"/>
+      <c r="Z1" s="200" t="s">
         <v>113</v>
       </c>
-      <c r="AA1" s="198" t="s">
+      <c r="AA1" s="200" t="s">
         <v>111</v>
       </c>
-      <c r="AB1" s="198"/>
-      <c r="AC1" s="198"/>
-      <c r="AD1" s="198"/>
-      <c r="AE1" s="198"/>
-      <c r="AF1" s="198"/>
-      <c r="AG1" s="198" t="s">
+      <c r="AB1" s="200"/>
+      <c r="AC1" s="200"/>
+      <c r="AD1" s="200"/>
+      <c r="AE1" s="200"/>
+      <c r="AF1" s="200"/>
+      <c r="AG1" s="200" t="s">
         <v>85</v>
       </c>
       <c r="AH1" s="201"/>
     </row>
     <row r="2" spans="1:34" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="203"/>
-      <c r="B2" s="200"/>
-      <c r="C2" s="200"/>
+      <c r="A2" s="205"/>
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
       <c r="D2" s="97" t="s">
         <v>119</v>
       </c>
@@ -1849,19 +1849,19 @@
       <c r="G2" s="97" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="196" t="s">
+      <c r="H2" s="202" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196" t="s">
+      <c r="I2" s="202"/>
+      <c r="J2" s="202"/>
+      <c r="K2" s="202" t="s">
         <v>116</v>
       </c>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="203"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="34"/>
       <c r="S2" s="97"/>
@@ -1871,17 +1871,17 @@
       <c r="W2" s="35"/>
       <c r="X2" s="35"/>
       <c r="Y2" s="35"/>
-      <c r="Z2" s="200"/>
-      <c r="AA2" s="196" t="s">
+      <c r="Z2" s="203"/>
+      <c r="AA2" s="202" t="s">
         <v>87</v>
       </c>
-      <c r="AB2" s="196"/>
-      <c r="AC2" s="196"/>
-      <c r="AD2" s="196" t="s">
+      <c r="AB2" s="202"/>
+      <c r="AC2" s="202"/>
+      <c r="AD2" s="202" t="s">
         <v>88</v>
       </c>
-      <c r="AE2" s="196"/>
-      <c r="AF2" s="196"/>
+      <c r="AE2" s="202"/>
+      <c r="AF2" s="202"/>
       <c r="AG2" s="33" t="s">
         <v>87</v>
       </c>
@@ -1907,49 +1907,49 @@
       <c r="G3" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="H3" s="195" t="s">
+      <c r="H3" s="206" t="s">
         <v>90</v>
       </c>
-      <c r="I3" s="195"/>
-      <c r="J3" s="195"/>
-      <c r="K3" s="195" t="s">
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206" t="s">
         <v>90</v>
       </c>
-      <c r="L3" s="195"/>
-      <c r="M3" s="195"/>
-      <c r="N3" s="195" t="s">
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="206" t="s">
         <v>107</v>
       </c>
-      <c r="O3" s="195"/>
-      <c r="P3" s="195"/>
-      <c r="Q3" s="197" t="s">
+      <c r="O3" s="206"/>
+      <c r="P3" s="206"/>
+      <c r="Q3" s="207" t="s">
         <v>91</v>
       </c>
-      <c r="R3" s="197"/>
-      <c r="S3" s="197"/>
-      <c r="T3" s="199" t="s">
+      <c r="R3" s="207"/>
+      <c r="S3" s="207"/>
+      <c r="T3" s="208" t="s">
         <v>108</v>
       </c>
-      <c r="U3" s="199"/>
-      <c r="V3" s="199"/>
-      <c r="W3" s="197" t="s">
+      <c r="U3" s="208"/>
+      <c r="V3" s="208"/>
+      <c r="W3" s="207" t="s">
         <v>92</v>
       </c>
-      <c r="X3" s="197"/>
-      <c r="Y3" s="197"/>
+      <c r="X3" s="207"/>
+      <c r="Y3" s="207"/>
       <c r="Z3" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="AA3" s="195" t="s">
+      <c r="AA3" s="206" t="s">
         <v>107</v>
       </c>
-      <c r="AB3" s="195"/>
-      <c r="AC3" s="195"/>
-      <c r="AD3" s="197" t="s">
+      <c r="AB3" s="206"/>
+      <c r="AC3" s="206"/>
+      <c r="AD3" s="207" t="s">
         <v>107</v>
       </c>
-      <c r="AE3" s="197"/>
-      <c r="AF3" s="197"/>
+      <c r="AE3" s="207"/>
+      <c r="AF3" s="207"/>
       <c r="AG3" s="45" t="s">
         <v>93</v>
       </c>
@@ -2360,29 +2360,29 @@
         <f t="shared" si="6"/>
         <v>25.565966915658944</v>
       </c>
-      <c r="AA7" s="204">
+      <c r="AA7" s="195">
         <v>485.22199999999998</v>
       </c>
-      <c r="AB7" s="205" t="s">
+      <c r="AB7" s="196" t="s">
         <v>109</v>
       </c>
-      <c r="AC7" s="205">
+      <c r="AC7" s="196">
         <v>206.60105337212624</v>
       </c>
-      <c r="AD7" s="204">
+      <c r="AD7" s="195">
         <v>53.353999999999999</v>
       </c>
-      <c r="AE7" s="205" t="s">
+      <c r="AE7" s="196" t="s">
         <v>109</v>
       </c>
-      <c r="AF7" s="206">
+      <c r="AF7" s="197">
         <v>27.137225513223633</v>
       </c>
-      <c r="AG7" s="207">
+      <c r="AG7" s="198">
         <f t="shared" si="7"/>
         <v>31.350472032885406</v>
       </c>
-      <c r="AH7" s="208">
+      <c r="AH7" s="199">
         <f t="shared" si="8"/>
         <v>3.4472325756922979</v>
       </c>
@@ -4092,11 +4092,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AA1:AF1"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Q1:Y1"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:P3"/>
@@ -4106,198 +4109,14 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AA1:AF1"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="Q1:Y1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="AA2:AC2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
-      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0000-000005000000}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Summary!Z4:Z11</xm:f>
-              <xm:sqref>Z21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!AA4:AA11</xm:f>
-              <xm:sqref>AA21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!AD4:AD11</xm:f>
-              <xm:sqref>AD21</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0000-000004000000}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Summary!Z12:Z19</xm:f>
-              <xm:sqref>Z22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!AA12:AA19</xm:f>
-              <xm:sqref>AA22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!AD12:AD19</xm:f>
-              <xm:sqref>AD22</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0000-000003000000}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Summary!F4:F11</xm:f>
-              <xm:sqref>F21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!G4:G11</xm:f>
-              <xm:sqref>G21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!H4:H11</xm:f>
-              <xm:sqref>H21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!K4:K11</xm:f>
-              <xm:sqref>K21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!N4:N11</xm:f>
-              <xm:sqref>N21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>Q21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!T4:T11</xm:f>
-              <xm:sqref>T21</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0000-000002000000}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Summary!F12:F19</xm:f>
-              <xm:sqref>F22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!G12:G19</xm:f>
-              <xm:sqref>G22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!H12:H19</xm:f>
-              <xm:sqref>H22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!K12:K19</xm:f>
-              <xm:sqref>K22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!N12:N19</xm:f>
-              <xm:sqref>N22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!Q12:Q19</xm:f>
-              <xm:sqref>Q22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!T12:T19</xm:f>
-              <xm:sqref>T22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!D12:D19</xm:f>
-              <xm:sqref>D22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!E12:E19</xm:f>
-              <xm:sqref>E22</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0000-000001000000}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Summary!AH4:AH11</xm:f>
-              <xm:sqref>AH21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!AH12:AH19</xm:f>
-              <xm:sqref>AH22</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0000-000000000000}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Summary!AG4:AG11</xm:f>
-              <xm:sqref>AG21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!AG12:AG19</xm:f>
-              <xm:sqref>AG22</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-      </x14:sparklineGroups>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -9250,8 +9069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545394EB-71DD-4013-BE0B-278F06112FA4}">
   <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11023,220 +10842,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
-      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{C97E76D8-21B5-43A5-A2F2-39E9454906B9}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Summary_Tidy!U2:U9</xm:f>
-              <xm:sqref>U19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary_Tidy!V2:V9</xm:f>
-              <xm:sqref>V19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary_Tidy!W2:W9</xm:f>
-              <xm:sqref>W19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary_Tidy!X2:X9</xm:f>
-              <xm:sqref>X19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary_Tidy!Y2:Y9</xm:f>
-              <xm:sqref>Y19</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{5F80C046-417C-44BA-9F5B-3C1954508A91}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Summary_Tidy!U10:U17</xm:f>
-              <xm:sqref>U20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary_Tidy!V10:V17</xm:f>
-              <xm:sqref>V20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary_Tidy!W10:W17</xm:f>
-              <xm:sqref>W20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary_Tidy!X10:X17</xm:f>
-              <xm:sqref>X20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary_Tidy!Y10:Y17</xm:f>
-              <xm:sqref>Y20</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{FCD86027-CA52-4114-BE28-BD69E255B671}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Summary_Tidy!F10:F17</xm:f>
-              <xm:sqref>F20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary_Tidy!G10:G17</xm:f>
-              <xm:sqref>G20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary_Tidy!H10:H17</xm:f>
-              <xm:sqref>H20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary_Tidy!I10:I17</xm:f>
-              <xm:sqref>I20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary_Tidy!J10:J17</xm:f>
-              <xm:sqref>J20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary_Tidy!L10:L17</xm:f>
-              <xm:sqref>L20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary_Tidy!N10:N17</xm:f>
-              <xm:sqref>N20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary_Tidy!P10:P17</xm:f>
-              <xm:sqref>P20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary_Tidy!R10:R17</xm:f>
-              <xm:sqref>R20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary_Tidy!D10:D17</xm:f>
-              <xm:sqref>D20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary_Tidy!E10:E17</xm:f>
-              <xm:sqref>E20</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{61BB3F5B-C6A7-4A93-AF31-0F046990BF2A}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Summary_Tidy!F2:F9</xm:f>
-              <xm:sqref>F19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary_Tidy!G2:G9</xm:f>
-              <xm:sqref>G19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary_Tidy!H2:H9</xm:f>
-              <xm:sqref>H19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary_Tidy!I2:I9</xm:f>
-              <xm:sqref>I19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary_Tidy!J2:J9</xm:f>
-              <xm:sqref>J19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary_Tidy!L2:L9</xm:f>
-              <xm:sqref>L19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary_Tidy!N2:N9</xm:f>
-              <xm:sqref>N19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary_Tidy!P2:P9</xm:f>
-              <xm:sqref>P19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary_Tidy!R2:R9</xm:f>
-              <xm:sqref>R19</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{4CA786CF-FE70-43FF-B429-911EFD72C841}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Summary_Tidy!AA2:AA9</xm:f>
-              <xm:sqref>AA19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary_Tidy!AA10:AA17</xm:f>
-              <xm:sqref>AA20</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{76FEA3EE-9A07-45E5-8572-30A78AA594B2}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Summary_Tidy!Z2:Z9</xm:f>
-              <xm:sqref>Z19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary_Tidy!Z10:Z17</xm:f>
-              <xm:sqref>Z20</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-      </x14:sparklineGroups>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
